--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0FC5F-3457-9C4B-9546-702833B2FB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="22260" windowHeight="12640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -14,10 +15,15 @@
     <sheet name="C" sheetId="6" r:id="rId5"/>
     <sheet name="C++" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -356,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大学英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语（一）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,17 +731,21 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学语文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -806,14 +812,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,45 +1103,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="11">
         <v>250619100001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5">
         <v>182215</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1143,59 +1152,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1203,23 +1212,23 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
@@ -1227,23 +1236,23 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="5">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="8"/>
@@ -1251,24 +1260,24 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
-        <v>120</v>
+      <c r="H6" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
@@ -1278,23 +1287,23 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="5">
         <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
@@ -1302,23 +1311,23 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="5">
         <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="8"/>
@@ -1326,23 +1335,23 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="8"/>
@@ -1350,23 +1359,23 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="5">
         <v>5</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
@@ -1374,21 +1383,21 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="5">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
@@ -1396,23 +1405,23 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5">
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
@@ -1420,21 +1429,21 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="5">
         <v>3</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
@@ -1442,197 +1451,197 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="5">
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="5">
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="5">
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="5">
         <v>4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="5">
         <v>4</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5">
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="5">
         <v>4</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1645,22 +1654,11 @@
         <v>68</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1673,6 +1671,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,59 +1689,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1740,23 +1749,23 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
@@ -1764,23 +1773,23 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="5">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="8"/>
@@ -1788,23 +1797,23 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="5">
         <v>14</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="8"/>
@@ -1812,23 +1821,23 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
@@ -1836,23 +1845,23 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="5">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="8"/>
@@ -1860,23 +1869,23 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="8"/>
@@ -1884,21 +1893,21 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
@@ -1906,23 +1915,23 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="5">
         <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
@@ -1930,21 +1939,21 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5">
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
@@ -1952,270 +1961,270 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="5">
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5">
         <v>3</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="9"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="5">
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="9"/>
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="5">
         <v>4</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5">
         <v>4</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="5">
         <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="5">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="5">
         <v>4</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="5">
         <v>4</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2228,21 +2237,27 @@
         <v>73</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
@@ -2253,12 +2268,6 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2267,121 +2276,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>132</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2392,185 +2401,185 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>151</v>
-      </c>
       <c r="B23" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2580,201 +2589,201 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B19" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B20" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="B25" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0FC5F-3457-9C4B-9546-702833B2FB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220E174-97DF-CD43-AB35-1B72B3172442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="22260" windowHeight="12640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="2040" windowWidth="22260" windowHeight="12640" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>linux环境高级编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unix网络编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,6 +731,10 @@
   </si>
   <si>
     <t>大学语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unix环境高级编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
@@ -1268,7 +1268,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1659,6 +1659,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1671,17 +1682,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,17 +2242,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A1:H1"/>
@@ -2268,6 +2257,17 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2290,10 +2290,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2328,15 +2328,15 @@
         <v>125</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2347,7 +2347,7 @@
         <v>126</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2355,7 +2355,7 @@
         <v>127</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>128</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>130</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>131</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2404,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2415,10 +2415,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>134</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2512,23 +2512,23 @@
         <v>142</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2536,50 +2536,50 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2603,50 +2603,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2654,58 +2654,58 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2713,42 +2713,42 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2756,34 +2756,34 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
